--- a/src/models/baselines/LR/results/real-world/Dribbble/metrics.xlsx
+++ b/src/models/baselines/LR/results/real-world/Dribbble/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8020878683540392</v>
+        <v>0.8261645864199063</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6558441558441559</v>
+        <v>0.6688311688311688</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6558441558441559</v>
+        <v>0.6688311688311688</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8286903687885735</v>
+        <v>0.8386115456454144</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6558441558441559</v>
+        <v>0.6623376623376623</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6558441558441559</v>
+        <v>0.6623376623376623</v>
       </c>
       <c r="D4" t="n">
-        <v>0.856871815139451</v>
+        <v>0.8522036407077254</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8485528973091981</v>
+        <v>0.8470402351175449</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6298701298701299</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6298701298701299</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7898055148610732</v>
+        <v>0.8122121037805865</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6623376623376623</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6623376623376623</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8250541788405247</v>
+        <v>0.8195747357617593</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6298701298701299</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6298701298701299</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8249811356933375</v>
+        <v>0.8252866202059831</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6298701298701299</v>
+        <v>0.5974025974025974</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6298701298701299</v>
+        <v>0.5974025974025974</v>
       </c>
       <c r="D9" t="n">
-        <v>0.831565951271461</v>
+        <v>0.8305312768135256</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D10" t="n">
-        <v>0.819140787734821</v>
+        <v>0.8187224622506944</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6623376623376623</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6623376623376623</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8482801753035533</v>
+        <v>0.8095133698618043</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.638961038961039</v>
+        <v>0.6318181818181818</v>
       </c>
       <c r="C2" t="n">
-        <v>0.638961038961039</v>
+        <v>0.6318181818181818</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8275030693296033</v>
+        <v>0.8279860576564945</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02253578369665865</v>
+        <v>0.02525149451617294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02253578369665865</v>
+        <v>0.02525149451617294</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02082878972225501</v>
+        <v>0.01424452804972252</v>
       </c>
     </row>
   </sheetData>
